--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E202FB7-80B7-F340-A00D-8075B81D9042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E55CBAC-F083-BB48-84EC-2EAC53BD4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="5000" windowWidth="24440" windowHeight="12440" activeTab="1" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -52,22 +52,43 @@
     <t>Scott 1990</t>
   </si>
   <si>
-    <t>Ulna depth across the process anaconaeus</t>
-  </si>
-  <si>
-    <t>Ulna greatest length</t>
-  </si>
-  <si>
-    <t>Ulna length of the olecranon</t>
-  </si>
-  <si>
-    <t>Ulna smallest depth of the olecranon</t>
-  </si>
-  <si>
-    <t>olecranon length</t>
-  </si>
-  <si>
-    <t>olecranon width</t>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>DPA</t>
+  </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>ulna greatest length</t>
+  </si>
+  <si>
+    <t>ulna length of the olecranon</t>
+  </si>
+  <si>
+    <t>ulna smallest depth of the olecranon</t>
+  </si>
+  <si>
+    <t>ulna depth across the process anaconaeus</t>
+  </si>
+  <si>
+    <t>GLl</t>
+  </si>
+  <si>
+    <t>ulna lateral length</t>
+  </si>
+  <si>
+    <t>ulna proximal articular breadth</t>
+  </si>
+  <si>
+    <t>ulna oronoid process breadth</t>
   </si>
 </sst>
 </file>
@@ -426,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,34 +482,92 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5" s="1" t="s">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="G6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -499,7 +578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D8312-09FE-9042-AEC2-CE8D2CE4ADFD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E55CBAC-F083-BB48-84EC-2EAC53BD4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23897E-C070-B84A-AB78-413A41B6B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structures" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="structures" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -89,6 +90,45 @@
   </si>
   <si>
     <t>ulna oronoid process breadth</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>in oba</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>olecranon</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>humeral facet on radius</t>
+  </si>
+  <si>
+    <t>distalmost part of' some olecranon</t>
+  </si>
+  <si>
+    <t>proximalmost part of' some olecranon</t>
+  </si>
+  <si>
+    <t>lateral side of' some ulna</t>
   </si>
 </sst>
 </file>
@@ -130,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +491,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,6 +523,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
@@ -575,6 +619,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310928B7-3728-C248-96B3-218C4B9BBF5E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D8312-09FE-9042-AEC2-CE8D2CE4ADFD}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23897E-C070-B84A-AB78-413A41B6B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EC4F8-2DF9-E346-9ACC-91712E28224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,6 @@
     <t>ulna greatest length</t>
   </si>
   <si>
-    <t>ulna length of the olecranon</t>
-  </si>
-  <si>
-    <t>ulna smallest depth of the olecranon</t>
-  </si>
-  <si>
     <t>ulna depth across the process anaconaeus</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>lateral side of' some ulna</t>
+  </si>
+  <si>
+    <t>length of olecranon</t>
+  </si>
+  <si>
+    <t>depth of olecranon</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -549,10 +549,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -585,11 +585,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310928B7-3728-C248-96B3-218C4B9BBF5E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,16 +633,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,57 +650,57 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EC4F8-2DF9-E346-9ACC-91712E28224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD6629-6DC3-D44F-B899-B77EFEFC1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>ulna proximal articular breadth</t>
   </si>
   <si>
-    <t>ulna oronoid process breadth</t>
-  </si>
-  <si>
     <t>Trait</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>medial-lateral</t>
   </si>
   <si>
-    <t>humeral facet on radius</t>
-  </si>
-  <si>
     <t>distalmost part of' some olecranon</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>depth of olecranon</t>
+  </si>
+  <si>
+    <t>ulna coronoid process breadth</t>
+  </si>
+  <si>
+    <t>humeral facet on ulna</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -623,7 +623,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,16 +633,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,13 +650,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,21 +664,21 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -686,10 +686,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,10 +697,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD6629-6DC3-D44F-B899-B77EFEFC1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A2929-7289-8546-B31F-59ABC7E50D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Scott 1990</t>
   </si>
   <si>
+    <t>olecranon length</t>
+  </si>
+  <si>
     <t>GL</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
     <t>distalmost part of' some olecranon</t>
   </si>
   <si>
-    <t>proximalmost part of' some olecranon</t>
-  </si>
-  <si>
     <t>lateral side of' some ulna</t>
   </si>
   <si>
@@ -129,6 +129,24 @@
   </si>
   <si>
     <t>humeral facet on ulna</t>
+  </si>
+  <si>
+    <t>ulna width</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>width and ('part of' some ulna)</t>
+  </si>
+  <si>
+    <t>in fovt; no equivalency</t>
+  </si>
+  <si>
+    <t>olecranon depth</t>
+  </si>
+  <si>
+    <t>proximalmost part of' some 'humeral facet on ulna'</t>
   </si>
 </sst>
 </file>
@@ -524,76 +542,111 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
@@ -615,15 +668,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310928B7-3728-C248-96B3-218C4B9BBF5E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,78 +687,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A2929-7289-8546-B31F-59ABC7E50D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B50784-24C0-F940-B03A-8B1E328C7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +609,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310928B7-3728-C248-96B3-218C4B9BBF5E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B50784-24C0-F940-B03A-8B1E328C7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972925BF-B3D1-C74E-894A-3EF260BD71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>proximalmost part of' some 'humeral facet on ulna'</t>
+  </si>
+  <si>
+    <t>taxon restrictions</t>
+  </si>
+  <si>
+    <t>only in ruminants</t>
   </si>
 </sst>
 </file>
@@ -506,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +545,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -554,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -570,8 +579,11 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -591,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -608,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -625,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -640,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -651,22 +663,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
   </sheetData>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972925BF-B3D1-C74E-894A-3EF260BD71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330C680-69D7-574F-8067-DB64164D7298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -71,9 +71,6 @@
     <t>BPC</t>
   </si>
   <si>
-    <t>ulna greatest length</t>
-  </si>
-  <si>
     <t>ulna depth across the process anaconaeus</t>
   </si>
   <si>
@@ -153,6 +150,21 @@
   </si>
   <si>
     <t>only in ruminants</t>
+  </si>
+  <si>
+    <t>ulna length</t>
+  </si>
+  <si>
+    <t>Dip</t>
+  </si>
+  <si>
+    <t>Bp</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Did</t>
   </si>
 </sst>
 </file>
@@ -515,7 +527,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,15 +558,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -565,10 +577,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -580,21 +592,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -605,13 +617,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -622,13 +634,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -639,41 +651,53 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
@@ -702,71 +726,71 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330C680-69D7-574F-8067-DB64164D7298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90687131-82F2-D349-84D5-D8C894598957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
@@ -155,16 +155,16 @@
     <t>ulna length</t>
   </si>
   <si>
-    <t>Dip</t>
-  </si>
-  <si>
-    <t>Bp</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Did</t>
+    <t>ulna Dip</t>
+  </si>
+  <si>
+    <t>ulna Bp</t>
+  </si>
+  <si>
+    <t>ulna SC</t>
+  </si>
+  <si>
+    <t>ulna Did</t>
   </si>
 </sst>
 </file>
@@ -186,12 +186,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,10 +212,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,25 +684,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90687131-82F2-D349-84D5-D8C894598957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC20729-8560-B544-9A50-BA1863E40AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>depth of olecranon</t>
   </si>
   <si>
-    <t>ulna coronoid process breadth</t>
-  </si>
-  <si>
     <t>humeral facet on ulna</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>ulna Did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulna coronoid process breadth;  facies articularis proximalis </t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -599,21 +599,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -673,37 +673,37 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC20729-8560-B544-9A50-BA1863E40AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE56419-2842-A346-BBE8-54B28396D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -165,13 +165,28 @@
   </si>
   <si>
     <t xml:space="preserve">ulna coronoid process breadth;  facies articularis proximalis </t>
+  </si>
+  <si>
+    <t>Ulna Dip is the greatest diagonal length of the proximal end from the caudal border of the Olecranon to the cranial border of the Facies articularis lateralis</t>
+  </si>
+  <si>
+    <t>Ulna Bp is the breadth of the proximal end of the Facies articularis ventralis to the Facies articularis dorsalis</t>
+  </si>
+  <si>
+    <t>Ulna SC stands for smallest breadth of the corpus</t>
+  </si>
+  <si>
+    <t>Ulna Did is the greatest diagonal of the distal epiphysis</t>
+  </si>
+  <si>
+    <t>emailed Sebastian for help</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +198,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -212,11 +233,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,27 +705,51 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="F12" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE56419-2842-A346-BBE8-54B28396D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997E87D-22F9-D54C-8929-8AD9C9CEEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5997E87D-22F9-D54C-8929-8AD9C9CEEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3ACB0D-0E87-254A-B2F5-8C720A31F0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="12940" yWindow="680" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
     <sheet name="axis" sheetId="3" r:id="rId2"/>
-    <sheet name="structures" sheetId="2" r:id="rId3"/>
+    <sheet name="AB" sheetId="4" r:id="rId3"/>
+    <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -152,41 +153,77 @@
     <t>ulna length</t>
   </si>
   <si>
-    <t>ulna Dip</t>
-  </si>
-  <si>
-    <t>ulna Bp</t>
-  </si>
-  <si>
-    <t>ulna SC</t>
-  </si>
-  <si>
-    <t>ulna Did</t>
-  </si>
-  <si>
     <t xml:space="preserve">ulna coronoid process breadth;  facies articularis proximalis </t>
   </si>
   <si>
-    <t>Ulna Dip is the greatest diagonal length of the proximal end from the caudal border of the Olecranon to the cranial border of the Facies articularis lateralis</t>
-  </si>
-  <si>
-    <t>Ulna Bp is the breadth of the proximal end of the Facies articularis ventralis to the Facies articularis dorsalis</t>
-  </si>
-  <si>
-    <t>Ulna SC stands for smallest breadth of the corpus</t>
-  </si>
-  <si>
-    <t>Ulna Did is the greatest diagonal of the distal epiphysis</t>
-  </si>
-  <si>
-    <t>emailed Sebastian for help</t>
+    <t>ulna distal depth</t>
+  </si>
+  <si>
+    <t>ulna proximal breadth</t>
+  </si>
+  <si>
+    <t>ulna diaphysis breadth</t>
+  </si>
+  <si>
+    <t>ulna proximal depth</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>posterior-most part of olecranon</t>
+  </si>
+  <si>
+    <t>anterior-most part of coromoid process</t>
+  </si>
+  <si>
+    <t>*check if posterior and anterior are on correct structures; check that it's not the same as proximal depth of epiphysis of ulna</t>
+  </si>
+  <si>
+    <t>medial-most part of medial facies articiularies</t>
+  </si>
+  <si>
+    <t>lateral-most part of lateral facies articulares</t>
+  </si>
+  <si>
+    <t>*check if not the same as breadth of proximal epiphysis of ulna</t>
+  </si>
+  <si>
+    <t>diaphysis of ulna</t>
+  </si>
+  <si>
+    <t>distal epiphysis of ulna</t>
+  </si>
+  <si>
+    <t>*also in AB</t>
+  </si>
+  <si>
+    <t>posterior-most epicondyle of distal epiphysis of ulna</t>
+  </si>
+  <si>
+    <t>anterior-most epicondyle of distal epiphysis of ulna</t>
+  </si>
+  <si>
+    <t>Dip</t>
+  </si>
+  <si>
+    <t>Bp</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Did</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,19 +243,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,12 +271,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5B778-2FB3-BA4B-A7F1-A12071E72997}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -705,52 +744,40 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
@@ -766,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310928B7-3728-C248-96B3-218C4B9BBF5E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,7 +804,7 @@
     <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -791,7 +818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -802,7 +829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -813,7 +840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -824,7 +851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -835,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -845,6 +872,46 @@
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -853,11 +920,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7852D539-B2EA-4B47-9A5B-74C3C5BE6481}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D8312-09FE-9042-AEC2-CE8D2CE4ADFD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3ACB0D-0E87-254A-B2F5-8C720A31F0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE8809-FB91-2243-9505-2EC96FCC12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12940" yWindow="680" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="AB" sheetId="4" r:id="rId3"/>
     <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/terms/ulnaTerms.xlsx
+++ b/terms/ulnaTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE8809-FB91-2243-9505-2EC96FCC12C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9F9A28-EC53-9E47-8812-B6719C8CFC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="680" windowWidth="14400" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{716E60D6-AA9C-1D4A-8ED5-974E0E7B76DB}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -595,7 +595,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,6 +735,9 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
